--- a/PflichtenheftOrg/Ext. files/Risikoanalyse.xlsx
+++ b/PflichtenheftOrg/Ext. files/Risikoanalyse.xlsx
@@ -8,29 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausschwegler/OneDrive/FHNW/04_Unterricht/FS19/pro2E/Team1/EMI-Filter/PflichtenheftOrg/Ext. files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{7B06A07F-7188-0946-B048-C7944435CBA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7CBE3DB3-2077-414D-AC6B-E193A1E6E20F}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{7B06A07F-7188-0946-B048-C7944435CBA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{32BCCBF7-2BE7-F942-A212-A3A5152D9D0F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Risiko" sheetId="1" r:id="rId1"/>
+    <sheet name="Übersicht" sheetId="2" r:id="rId2"/>
     <sheet name="Legende" sheetId="4" r:id="rId3"/>
+    <sheet name="Matrix" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Risiko!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="119">
   <si>
     <t>A</t>
   </si>
@@ -62,9 +69,6 @@
     <t>Projektleiter fällt kurzfristig aus</t>
   </si>
   <si>
-    <t>Projektleiter fällt langfristig aus</t>
-  </si>
-  <si>
     <t>Teammitglied fällt kurzfristig aus</t>
   </si>
   <si>
@@ -74,21 +78,9 @@
     <t>Datenverlust</t>
   </si>
   <si>
-    <t>Soziale Spannungen im Projektteam</t>
-  </si>
-  <si>
-    <t>Arbeitgeber nicht zufrieden mit dem Projekt</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Schlechte Terminplanung</t>
-  </si>
-  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -113,21 +105,12 @@
     <t>Si'</t>
   </si>
   <si>
-    <t>Fachliche Fehler</t>
-  </si>
-  <si>
-    <t>Mangelnde Kommunikation</t>
-  </si>
-  <si>
     <t>Pufferzeiten einplanen</t>
   </si>
   <si>
     <t>Kürzel</t>
   </si>
   <si>
-    <t>Arbeiten werden nicht termingerecht  oder qualitativ minderwertig erledigt</t>
-  </si>
-  <si>
     <t>Ursachen</t>
   </si>
   <si>
@@ -182,25 +165,10 @@
     <t>Niklaus Schwegler</t>
   </si>
   <si>
-    <t>Mangelnde Kommunikation im Team</t>
-  </si>
-  <si>
-    <t>Auftraggeber ist nicht zufrieden</t>
-  </si>
-  <si>
-    <t>Schlechte Zeitplanung</t>
-  </si>
-  <si>
     <t>Auftrag ist unklar definiert</t>
   </si>
   <si>
     <t>LD</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>YP</t>
   </si>
   <si>
     <t>NS</t>
@@ -215,11 +183,6 @@
 Stlv. Projektleiter ist mit den Aufgaben vertraut</t>
   </si>
   <si>
-    <t>Krankheit
-schlechte Planung
-Private Ereignisse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Weniger personelle Ressourcen vorhanden
 Umplanung notwendig
 </t>
@@ -229,34 +192,8 @@
 Umplanung unumgänglich</t>
   </si>
   <si>
-    <t>gute Kommunikation im Team
-saubere Dokumentation</t>
-  </si>
-  <si>
-    <t>Schlechte Stimmung 
-Unzufriedenheit bei Teammitglieder</t>
-  </si>
-  <si>
-    <t>Arbeitseffizients leidet
-Arbeiten gehen vergessen</t>
-  </si>
-  <si>
     <t>Kommunikationsstandard werden festgelegt
 faire Arbeitsaufteilung</t>
-  </si>
-  <si>
-    <t>Ziele nicht erreicht
-Arbeiten nicht gemäss Pflichtenheft</t>
-  </si>
-  <si>
-    <t>Mehraufwand durch Korrekturen</t>
-  </si>
-  <si>
-    <t>Periodische Absprache mit Auftraggeber</t>
-  </si>
-  <si>
-    <t>Zu wenig Puffer
-Aufwand für Teilarbeiten unterschätzt</t>
   </si>
   <si>
     <t>Verzögerung</t>
@@ -274,21 +211,12 @@
 Motivation leidet</t>
   </si>
   <si>
-    <t>Der Projektleiter gewährleistet eine faire Arbeitsaufteilung</t>
-  </si>
-  <si>
     <t>Technischer Defekt
 Server Probleme von Cloudspeicher</t>
   </si>
   <si>
     <t>Arbeiten gehen verloren
 Zusätzlicher Aufwand</t>
-  </si>
-  <si>
-    <t>Regelmässiges Backup erstellen</t>
-  </si>
-  <si>
-    <t>Lastenheft falsch</t>
   </si>
   <si>
     <t>Auftrag kann nicht zufriedenstellend erledigt werden</t>
@@ -335,9 +263,6 @@
 </t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Projektleiter fällt lanfristig aus</t>
   </si>
   <si>
@@ -353,18 +278,177 @@
 Bekannteabwesenheiten frühzeitig planen</t>
   </si>
   <si>
+    <t>verantw.</t>
+  </si>
+  <si>
+    <t>&gt; 90%</t>
+  </si>
+  <si>
+    <t>Sehr wahrscheinlich</t>
+  </si>
+  <si>
+    <t>70% -90%</t>
+  </si>
+  <si>
+    <t>Wahrscheinlich</t>
+  </si>
+  <si>
+    <t>50% -70%</t>
+  </si>
+  <si>
+    <t>Eher möglich</t>
+  </si>
+  <si>
+    <t>30% -50%</t>
+  </si>
+  <si>
+    <t>Weniger möglich</t>
+  </si>
+  <si>
+    <t>20% -30%</t>
+  </si>
+  <si>
+    <t>Unwahrscheinlich</t>
+  </si>
+  <si>
+    <t>&lt; 10%</t>
+  </si>
+  <si>
+    <t>Sehr unwahrscheinlich</t>
+  </si>
+  <si>
+    <r>
+      <t>Risiko R(Ei) = pi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Si</t>
+    </r>
+  </si>
+  <si>
+    <t>Gewichtung</t>
+  </si>
+  <si>
+    <t>Möglich</t>
+  </si>
+  <si>
+    <t>Gering</t>
+  </si>
+  <si>
+    <t>Mässig</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Strukturplan unvollständig</t>
+  </si>
+  <si>
+    <t>Zeitplan verschiebt sich</t>
+  </si>
+  <si>
+    <t>Massnahme</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Stv. kann Projekt weiterführen</t>
+  </si>
+  <si>
+    <t>Stv. kann Zeitplan durchsetzten</t>
+  </si>
+  <si>
     <t>Pufferzeiten einplanen
-Bekannteabwesenheiten frühzeitig planen</t>
-  </si>
-  <si>
-    <t>verantw.</t>
+Bekannte abwesenheiten frühzeitig planen</t>
+  </si>
+  <si>
+    <t>Krankheit
+Private Ereignisse</t>
+  </si>
+  <si>
+    <t>Zeitplan wird eingehalten</t>
+  </si>
+  <si>
+    <t>Saubere Dokumentation der Individuellen Arbeiten.</t>
+  </si>
+  <si>
+    <t>Erarbeitetes Wissen geht nicht verloren</t>
+  </si>
+  <si>
+    <t>Unerwartete APs
+kommen hinzu</t>
+  </si>
+  <si>
+    <t>Vergessengehen von APs wird minimiert</t>
+  </si>
+  <si>
+    <t>Alle Teammitglieder schauen den
+Projektplan an und ergänzen diesen</t>
+  </si>
+  <si>
+    <t>Zeiten der APs sind zu knapp kalkuliert</t>
+  </si>
+  <si>
+    <t>Schlechte Planung,
+zu wenig Einsatz</t>
+  </si>
+  <si>
+    <t>Verspätungen werden minimiert</t>
+  </si>
+  <si>
+    <t>Regelmässiges Backup erstellen,
+auf verschiedenen Datenträgern</t>
+  </si>
+  <si>
+    <t>Daten verlust nur zurück zumZeitpunkt
+des letzten Backup</t>
+  </si>
+  <si>
+    <t>Lastenheft falsch,
+mangelhaft</t>
+  </si>
+  <si>
+    <t>keine Unklarheiten werden offengelassen</t>
+  </si>
+  <si>
+    <t>Diferenzen werden reduziert</t>
+  </si>
+  <si>
+    <t>APs zu anspruchsvoll</t>
+  </si>
+  <si>
+    <t>Kompetenzen werden falssch eingeschätzt</t>
+  </si>
+  <si>
+    <t>Aufgabe kann nicht zufriedenstellend erledigt werden</t>
+  </si>
+  <si>
+    <t>APs auf Teammitglieder abstimmen</t>
+  </si>
+  <si>
+    <t>Jeder ist im  stande sein AP durchzuführen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +533,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,30 +603,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC001"/>
+        <fgColor rgb="FF538CD5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AE47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B14F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF538CD5"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -775,21 +859,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -824,26 +893,131 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -854,22 +1028,42 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -881,73 +1075,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -957,10 +1089,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -969,13 +1101,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -984,9 +1140,120 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -994,53 +1261,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1050,40 +1274,7 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1093,9 +1284,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1103,10 +1292,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1114,21 +1303,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1165,9 +1371,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1192,23 +1395,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1270,21 +1470,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,12 +1488,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,85 +1497,13 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,150 +1512,102 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,28 +1623,604 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC001"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC001"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC001"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC001"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC001"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AE47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF00B14F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF538CD5"/>
-      <color rgb="FF70AE47"/>
       <color rgb="FF00B14F"/>
       <color rgb="FFFFC001"/>
       <color rgb="FFFF5050"/>
+      <color rgb="FF70AE47"/>
+      <color rgb="FF538CD5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1591,6 +2232,117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132944</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132944</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung mit Pfeil 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20A15C9-BB27-4D4B-BA48-EE036B234FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1783944" y="381000"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D855FAC2-8902-7E49-9376-9BD1A6AA8674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7137400" y="3429000"/>
+          <a:ext cx="1117600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1890,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S106"/>
+  <dimension ref="B1:T107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="72" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" zoomScale="72" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="20" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1904,234 +2656,233 @@
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="34.1640625" customWidth="1"/>
-    <col min="10" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="2.83203125" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="7.83203125" customWidth="1"/>
-    <col min="21" max="21" width="43.5" customWidth="1"/>
-    <col min="26" max="26" width="39" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
+    <col min="9" max="10" width="34.1640625" customWidth="1"/>
+    <col min="11" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="7.83203125" customWidth="1"/>
+    <col min="22" max="22" width="43.5" customWidth="1"/>
+    <col min="27" max="27" width="39" customWidth="1"/>
+    <col min="29" max="29" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1"/>
-    <row r="2" spans="2:19" ht="32" customHeight="1" thickBot="1">
-      <c r="B2" s="111" t="s">
+    <row r="1" spans="2:20" ht="16" thickBot="1"/>
+    <row r="2" spans="2:20" ht="32" customHeight="1" thickBot="1">
+      <c r="B2" s="197"/>
+      <c r="C2" s="190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="47"/>
+    </row>
+    <row r="3" spans="2:20" ht="32" customHeight="1" thickBot="1">
+      <c r="B3" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="194" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="112" t="s">
+      <c r="M3" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="47"/>
+    </row>
+    <row r="4" spans="2:20" ht="68" customHeight="1" thickBot="1">
+      <c r="B4" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+      <c r="H4" s="192">
+        <f>F4*G4</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="195" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="184">
+        <v>1</v>
+      </c>
+      <c r="M4" s="185">
+        <f>K4*L4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="70"/>
+      <c r="P4" s="69"/>
+    </row>
+    <row r="5" spans="2:20" ht="68" customHeight="1" thickBot="1">
+      <c r="B5" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="192">
+        <f t="shared" ref="H5:H13" si="0">F5*G5</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="112" t="s">
+      <c r="J5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="184">
+        <v>2</v>
+      </c>
+      <c r="M5" s="185">
+        <f t="shared" ref="M5:M13" si="1">K5*L5</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+    </row>
+    <row r="6" spans="2:20" ht="59" customHeight="1" thickBot="1">
+      <c r="B6" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="50"/>
-    </row>
-    <row r="3" spans="2:19" ht="68" customHeight="1" thickBot="1">
-      <c r="B3" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="65">
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="192">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
         <v>2</v>
       </c>
-      <c r="G3" s="65">
+      <c r="M6" s="185">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H3" s="86">
-        <v>4</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="73">
-        <v>1</v>
-      </c>
-      <c r="K3" s="76">
-        <v>2</v>
-      </c>
-      <c r="L3" s="69">
-        <v>2</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="60"/>
-    </row>
-    <row r="4" spans="2:19" ht="68" customHeight="1" thickBot="1">
-      <c r="B4" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="117">
-        <v>2</v>
-      </c>
-      <c r="G4" s="117">
-        <v>2</v>
-      </c>
-      <c r="H4" s="86">
-        <v>4</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="117">
-        <v>1</v>
-      </c>
-      <c r="K4" s="76">
-        <v>1</v>
-      </c>
-      <c r="L4" s="69">
-        <v>1</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="114"/>
-      <c r="O4" s="115"/>
-    </row>
-    <row r="5" spans="2:19" ht="59" customHeight="1" thickBot="1">
-      <c r="B5" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="99" t="s">
+      <c r="N6" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="P6" s="53"/>
+    </row>
+    <row r="7" spans="2:20" ht="72" customHeight="1" thickBot="1">
+      <c r="B7" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="73">
-        <v>1</v>
-      </c>
-      <c r="G5" s="73">
-        <v>3</v>
-      </c>
-      <c r="H5" s="68">
-        <v>3</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="73">
-        <v>1</v>
-      </c>
-      <c r="K5" s="73">
-        <v>2</v>
-      </c>
-      <c r="L5" s="87">
-        <v>2</v>
-      </c>
-      <c r="M5" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="60"/>
-    </row>
-    <row r="6" spans="2:19" ht="72" customHeight="1" thickBot="1">
-      <c r="B6" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="65">
-        <v>2</v>
-      </c>
-      <c r="G6" s="65">
-        <v>2</v>
-      </c>
-      <c r="H6" s="89">
-        <v>4</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="65">
-        <v>1</v>
-      </c>
-      <c r="K6" s="65">
-        <v>2</v>
-      </c>
-      <c r="L6" s="82">
-        <v>2</v>
-      </c>
-      <c r="M6" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="60"/>
-    </row>
-    <row r="7" spans="2:19" ht="58" customHeight="1" thickBot="1">
-      <c r="B7" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>65</v>
+      <c r="D7" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="F7" s="13">
         <v>2</v>
@@ -2139,79 +2890,89 @@
       <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="192">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="13">
-        <v>2</v>
+      <c r="I7" s="195" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="K7" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>2</v>
       </c>
-      <c r="M7" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="60"/>
-    </row>
-    <row r="8" spans="2:19" ht="70" customHeight="1" thickBot="1">
-      <c r="B8" s="72" t="s">
+      <c r="M7" s="185">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="56"/>
+      <c r="P7" s="53"/>
+    </row>
+    <row r="8" spans="2:20" ht="58" customHeight="1" thickBot="1">
+      <c r="B8" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="74">
+      <c r="D8" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13">
         <v>2</v>
       </c>
-      <c r="G8" s="74">
-        <v>3</v>
-      </c>
-      <c r="H8" s="59">
+      <c r="H8" s="192">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I8" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="74">
+      <c r="I8" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="13">
         <v>2</v>
       </c>
-      <c r="K8" s="74">
+      <c r="L8" s="13">
         <v>1</v>
       </c>
-      <c r="L8" s="14">
+      <c r="M8" s="185">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M8" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="51"/>
-    </row>
-    <row r="9" spans="2:19" ht="58" customHeight="1" thickBot="1">
-      <c r="B9" s="53" t="s">
+      <c r="N8" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="56"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="2:20" ht="70" customHeight="1" thickBot="1">
+      <c r="B9" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>71</v>
+      <c r="C9" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>93</v>
       </c>
       <c r="F9" s="13">
         <v>2</v>
@@ -2219,365 +2980,427 @@
       <c r="G9" s="13">
         <v>2</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="192">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="195" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="13">
         <v>2</v>
       </c>
-      <c r="K9" s="13">
+      <c r="L9" s="13">
         <v>1</v>
       </c>
-      <c r="L9" s="14">
+      <c r="M9" s="185">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M9" s="108" t="s">
+      <c r="N9" s="186" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="50"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="2:20" ht="58" customHeight="1" thickBot="1">
+      <c r="B10" s="183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3</v>
+      </c>
+      <c r="H10" s="192">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="195" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2</v>
+      </c>
+      <c r="L10" s="13">
+        <v>1</v>
+      </c>
+      <c r="M10" s="185">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N10" s="186" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="50"/>
+      <c r="P10" s="48"/>
+    </row>
+    <row r="11" spans="2:20" ht="55" customHeight="1" thickBot="1">
+      <c r="B11" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="192">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="13">
+        <v>2</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="185">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N11" s="186" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" spans="2:20" ht="60" customHeight="1" thickBot="1">
+      <c r="B12" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="51"/>
-    </row>
-    <row r="10" spans="2:19" ht="55" customHeight="1" thickBot="1">
-      <c r="B10" s="52" t="s">
+      <c r="F12" s="13">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="192">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="49">
+      <c r="I12" s="195" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1</v>
+      </c>
+      <c r="M12" s="185">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="2:20" ht="62" customHeight="1" thickBot="1">
+      <c r="B13" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="61">
         <v>3</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G13" s="61">
         <v>2</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H13" s="192">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="49">
-        <v>2</v>
-      </c>
-      <c r="K10" s="49">
+      <c r="I13" s="196" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="61">
         <v>1</v>
       </c>
-      <c r="L10" s="14">
-        <v>2</v>
-      </c>
-      <c r="M10" s="109" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="51"/>
-    </row>
-    <row r="11" spans="2:19" ht="60" customHeight="1" thickBot="1">
-      <c r="B11" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="65">
-        <v>3</v>
-      </c>
-      <c r="G11" s="75">
-        <v>2</v>
-      </c>
-      <c r="H11" s="67">
-        <v>6</v>
-      </c>
-      <c r="I11" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="65">
+      <c r="L13" s="61">
         <v>1</v>
       </c>
-      <c r="K11" s="65">
+      <c r="M13" s="185">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L11" s="70">
-        <v>1</v>
-      </c>
-      <c r="M11" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="2:19" ht="62" customHeight="1" thickBot="1">
-      <c r="B12" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="92">
-        <v>3</v>
-      </c>
-      <c r="G12" s="93">
-        <v>2</v>
-      </c>
-      <c r="H12" s="94">
-        <v>6</v>
-      </c>
-      <c r="I12" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="93">
-        <v>1</v>
-      </c>
-      <c r="K12" s="93">
-        <v>1</v>
-      </c>
-      <c r="L12" s="95">
-        <v>1</v>
-      </c>
-      <c r="M12" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="2:19" ht="51" customHeight="1">
-      <c r="B13" s="127"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="6"/>
+      <c r="N13" s="187" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="2:19" ht="39.75" customHeight="1">
-      <c r="B14" s="127"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="4"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="2:20" ht="51" customHeight="1">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="76"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="2:19" ht="48" customHeight="1">
-      <c r="B15" s="127"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="4"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="2:20" ht="39.75" customHeight="1">
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="76"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="2:19" ht="50" customHeight="1">
-      <c r="B16" s="127"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="2:20" ht="48" customHeight="1">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="76"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="2:18" ht="44.5" customHeight="1">
-      <c r="B17" s="127"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="2:19" ht="50" customHeight="1">
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="76"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B18" s="127"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="2:19" ht="44.5" customHeight="1">
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="76"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="2:18" ht="59" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="2:19" ht="36.75" customHeight="1">
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="72"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="2:18" ht="51" customHeight="1">
-      <c r="B20" s="127"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="2:19" ht="59" customHeight="1">
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="2:18" ht="32" customHeight="1">
-      <c r="B21" s="127"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-    </row>
-    <row r="22" spans="2:18" ht="41.75" customHeight="1">
-      <c r="B22" s="127"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-    </row>
-    <row r="23" spans="2:18" ht="67.25" customHeight="1">
-      <c r="B23" s="127"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="127"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="138"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="139"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="2:19" ht="51" customHeight="1">
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="2:19" ht="32" customHeight="1">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+    </row>
+    <row r="23" spans="2:19" ht="41.75" customHeight="1">
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="2:19" ht="67.25" customHeight="1">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="74"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2589,9 +3412,10 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="139"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="75"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2603,9 +3427,10 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="8"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="75"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2617,8 +3442,9 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2631,8 +3457,9 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="2:18">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2645,8 +3472,9 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2659,8 +3487,9 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:19">
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2673,8 +3502,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:19">
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2687,8 +3517,9 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="2:13">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33" s="8"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2701,8 +3532,9 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2715,9 +3547,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="39"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2729,9 +3562,10 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="39"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="37"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2743,9 +3577,10 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="8"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="37"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2757,8 +3592,9 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2771,8 +3607,9 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="2:13">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2785,8 +3622,9 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2799,8 +3637,9 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2813,8 +3652,9 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2827,8 +3667,9 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2841,8 +3682,9 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="2:13">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2855,8 +3697,9 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="2:13">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14">
       <c r="B45" s="8"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2869,8 +3712,9 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="2:13">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14">
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2883,8 +3727,9 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="2:13">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14">
       <c r="B47" s="8"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2897,8 +3742,9 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="2:13">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" s="8"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2911,8 +3757,9 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="2:15" ht="20.75" customHeight="1">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" s="8"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2925,8 +3772,9 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="2:15" ht="20.5" customHeight="1">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:16" ht="20.75" customHeight="1">
       <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2939,8 +3787,9 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="2:15" ht="20.5" customHeight="1">
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:16" ht="20.5" customHeight="1">
       <c r="B51" s="8"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2953,8 +3802,9 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="2:15" ht="20.5" customHeight="1">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:16" ht="20.5" customHeight="1">
       <c r="B52" s="8"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2967,8 +3817,9 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:15" ht="20.5" customHeight="1">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:16" ht="20.5" customHeight="1">
       <c r="B53" s="8"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2981,8 +3832,9 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="2:15" ht="20.5" customHeight="1">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:16" ht="20.5" customHeight="1">
       <c r="B54" s="8"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2995,8 +3847,9 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="2:15" ht="20.5" customHeight="1">
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:16" ht="20.5" customHeight="1">
       <c r="B55" s="8"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3009,8 +3862,9 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="2:15" ht="20.5" customHeight="1">
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:16" ht="20.5" customHeight="1">
       <c r="B56" s="8"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3023,8 +3877,9 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="2:15">
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:16" ht="20.5" customHeight="1">
       <c r="B57" s="8"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3037,8 +3892,9 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="2:15">
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58" s="8"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3051,8 +3907,9 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="2:15">
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:16">
       <c r="B59" s="8"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3065,8 +3922,9 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="2:15">
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:16">
       <c r="B60" s="8"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3079,8 +3937,9 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="2:15">
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:16">
       <c r="B61" s="8"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3094,9 +3953,8 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="2:15">
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62" s="8"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3111,8 +3969,9 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="2:15">
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="2:16">
       <c r="B63" s="8"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3127,8 +3986,9 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="2:15">
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="2:16">
       <c r="B64" s="8"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3143,8 +4003,9 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="2:15">
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="2:16">
       <c r="B65" s="8"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3159,8 +4020,9 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="2:15">
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="2:16">
       <c r="B66" s="8"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3175,8 +4037,9 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="2:15">
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="2:16">
       <c r="B67" s="8"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3191,8 +4054,9 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="2:15">
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="2:16">
       <c r="B68" s="8"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3207,8 +4071,9 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="2:15">
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="2:16">
       <c r="B69" s="8"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3223,8 +4088,9 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="2:15">
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="2:16">
       <c r="B70" s="8"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3239,8 +4105,9 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="2:15">
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="2:16">
       <c r="B71" s="8"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3255,8 +4122,9 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="2:15">
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="2:16">
       <c r="B72" s="8"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3271,8 +4139,9 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="2:15">
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="2:16">
       <c r="B73" s="8"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3287,8 +4156,9 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="2:15">
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="2:16">
       <c r="B74" s="8"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3303,8 +4173,9 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="2:15">
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="2:16">
       <c r="B75" s="8"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3319,8 +4190,9 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="2:15">
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="2:16">
       <c r="B76" s="8"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3335,8 +4207,9 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="2:15">
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="2:16">
       <c r="B77" s="8"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3351,8 +4224,9 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="2:15">
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="2:16">
       <c r="B78" s="8"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3367,8 +4241,9 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="2:15">
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="2:16">
       <c r="B79" s="8"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3383,8 +4258,9 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="2:15">
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="2:16">
       <c r="B80" s="8"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3399,8 +4275,9 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="2:15">
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="2:16">
       <c r="B81" s="8"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3415,8 +4292,9 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="2:15">
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="2:16">
       <c r="B82" s="8"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3431,8 +4309,9 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="2:15">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="2:16">
       <c r="B83" s="8"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3447,8 +4326,9 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="2:15">
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="2:16">
       <c r="B84" s="8"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3463,8 +4343,9 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="2:15">
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="2:16">
       <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3479,8 +4360,9 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="2:15">
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="2:16">
       <c r="B86" s="8"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3495,8 +4377,9 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="2:15">
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="2:16">
       <c r="B87" s="8"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3511,8 +4394,9 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="2:15">
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="2:16">
       <c r="B88" s="8"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3527,8 +4411,9 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="2:15">
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="2:16">
       <c r="B89" s="8"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3543,8 +4428,9 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="2:15">
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="2:16">
       <c r="B90" s="8"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3559,8 +4445,9 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="2:15">
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="2:16">
       <c r="B91" s="8"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3575,8 +4462,9 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="2:15">
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="2:16">
       <c r="B92" s="8"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3591,8 +4479,9 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="2:15">
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="2:16">
       <c r="B93" s="8"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3607,8 +4496,9 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="2:15">
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="2:16">
       <c r="B94" s="8"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3623,8 +4513,9 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="2:15">
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="2:16">
       <c r="B95" s="8"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3639,8 +4530,9 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="2:15">
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="2:16">
       <c r="B96" s="8"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3655,8 +4547,9 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="2:15">
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="2:16">
       <c r="B97" s="8"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3671,8 +4564,9 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="2:15">
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="2:16">
       <c r="B98" s="8"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3687,8 +4581,9 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="2:15">
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="2:16">
       <c r="B99" s="8"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3703,8 +4598,9 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="2:15">
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="2:16">
       <c r="B100" s="8"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3719,8 +4615,9 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="2:15">
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="2:16">
       <c r="B101" s="8"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3735,8 +4632,9 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="2:15">
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="2:16">
       <c r="B102" s="8"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3751,8 +4649,9 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="2:15">
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="2:16">
       <c r="B103" s="8"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3767,8 +4666,9 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="2:15">
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="2:16">
       <c r="B104" s="8"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3783,8 +4683,9 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="2:15">
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="2:16">
       <c r="B105" s="8"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3799,8 +4700,9 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="2:15">
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="2:16">
       <c r="B106" s="8"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3815,60 +4717,99 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="2:16">
+      <c r="B107" s="8"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="E21:E23"/>
+  <mergeCells count="52">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
+  <conditionalFormatting sqref="H4:H13">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M13 H4:H13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.78740157480314998" bottom="0.78740157480314998" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3876,10 +4817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:C14"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3889,102 +4830,104 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16" thickBot="1"/>
     <row r="2" spans="2:3" ht="16.25" customHeight="1" thickTop="1">
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>20</v>
+      <c r="B2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>9</v>
+      <c r="C3" s="25" t="str">
+        <f>Risiko!C4</f>
+        <v>Projektleiter fällt kurzfristig aus</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>10</v>
+      <c r="C4" s="25" t="str">
+        <f>Risiko!C5</f>
+        <v>Projektleiter fällt lanfristig aus</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>11</v>
+      <c r="C5" s="25" t="str">
+        <f>Risiko!C6</f>
+        <v>Teammitglied fällt kurzfristig aus</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>12</v>
+      <c r="C6" s="25" t="str">
+        <f>Risiko!C7</f>
+        <v>Teammitglied fällt langfristig aus</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>27</v>
+      <c r="C7" s="25" t="str">
+        <f>Risiko!C8</f>
+        <v>Soziale Spannungen im Team</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="str">
+        <f>Risiko!C9</f>
+        <v>Strukturplan unvollständig</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.25" customHeight="1">
+      <c r="B9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="str">
+        <f>Risiko!C10</f>
+        <v>Zeiten der APs sind zu knapp kalkuliert</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16.25" customHeight="1">
+      <c r="B10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f>Risiko!C11</f>
+        <v>APs zu anspruchsvoll</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="16.25" customHeight="1">
+      <c r="B11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>Risiko!C12</f>
+        <v>Auftrag ist unklar definiert</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16.25" customHeight="1" thickBot="1">
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="16.25" customHeight="1" thickBot="1">
-      <c r="B13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="16" thickTop="1"/>
+      <c r="C12" s="198" t="str">
+        <f>Risiko!C13</f>
+        <v>Datenverlust</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4016,229 +4959,711 @@
   <sheetData>
     <row r="2" spans="2:20" ht="16" thickBot="1"/>
     <row r="3" spans="2:20" ht="21" thickBot="1">
-      <c r="B3" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
-      <c r="H3" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="125"/>
-      <c r="O3" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="121" t="s">
+      <c r="B3" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="H3" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="O3" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="81"/>
+    </row>
+    <row r="4" spans="2:20" ht="18">
+      <c r="B4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="H4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="18">
+      <c r="B5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="19" thickBot="1">
+      <c r="B6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="122"/>
-    </row>
-    <row r="4" spans="2:20" ht="18">
-      <c r="B4" s="29" t="s">
+      <c r="C6" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="18">
+      <c r="B7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="O7" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18">
+      <c r="B8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="H4" s="15" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="O8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="P8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="18">
-      <c r="B5" s="30" t="s">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="19" thickBot="1">
+      <c r="B9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C9" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="H5" s="9" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+      <c r="O9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="P9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="19" thickBot="1">
-      <c r="B6" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="H6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="18">
-      <c r="B7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="O7" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="18">
-      <c r="B8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="O8" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="T8" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="19" thickBot="1">
-      <c r="B9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="145" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="O9" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>90</v>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665961D4-B0C3-0B43-B36D-C4723BE11806}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" customWidth="1"/>
+    <col min="4" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="2.5" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="22" customHeight="1"/>
+    <row r="2" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B2" s="182"/>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="14.5" customHeight="1" thickBot="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="170"/>
+      <c r="D4" s="180">
+        <v>3</v>
+      </c>
+      <c r="E4" s="146"/>
+      <c r="F4" s="166">
+        <v>6</v>
+      </c>
+      <c r="G4" s="165"/>
+      <c r="H4" s="179">
+        <v>9</v>
+      </c>
+      <c r="I4" s="178"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="138"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="175"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="138"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="175"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="138"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="175"/>
+    </row>
+    <row r="8" spans="2:17" ht="16" thickBot="1">
+      <c r="B8" s="138"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="171"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="170"/>
+      <c r="D9" s="169">
+        <v>2</v>
+      </c>
+      <c r="E9" s="148"/>
+      <c r="F9" s="168">
+        <v>4</v>
+      </c>
+      <c r="G9" s="167"/>
+      <c r="H9" s="166">
+        <v>6</v>
+      </c>
+      <c r="I9" s="165"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="138"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="160"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="138"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="160"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="138"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="160"/>
+    </row>
+    <row r="13" spans="2:17" ht="16" thickBot="1">
+      <c r="B13" s="138"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="153"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="152"/>
+      <c r="D14" s="151">
+        <v>1</v>
+      </c>
+      <c r="E14" s="150"/>
+      <c r="F14" s="149">
+        <v>2</v>
+      </c>
+      <c r="G14" s="148"/>
+      <c r="H14" s="147">
+        <v>3</v>
+      </c>
+      <c r="I14" s="146"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="138"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="139"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="138"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="139"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="138"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="139"/>
+    </row>
+    <row r="18" spans="1:11" ht="16" thickBot="1">
+      <c r="B18" s="138"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="130"/>
+    </row>
+    <row r="19" spans="1:11" ht="10.25" customHeight="1" thickTop="1">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="128"/>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="127"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="16" thickBot="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="22.25" customHeight="1" thickBot="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="125"/>
+      <c r="F23" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="122"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="121">
+        <v>1</v>
+      </c>
+      <c r="E24" s="120"/>
+      <c r="F24" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="117"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="116">
+        <v>2</v>
+      </c>
+      <c r="E25" s="115"/>
+      <c r="F25" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="106"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="114">
+        <v>3</v>
+      </c>
+      <c r="E26" s="113"/>
+      <c r="F26" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="106"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="112">
+        <v>4</v>
+      </c>
+      <c r="E27" s="111"/>
+      <c r="F27" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="106"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="110">
+        <v>6</v>
+      </c>
+      <c r="E28" s="109"/>
+      <c r="F28" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="106"/>
+    </row>
+    <row r="29" spans="1:11" ht="16" thickBot="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="105">
+        <v>9</v>
+      </c>
+      <c r="E29" s="104"/>
+      <c r="F29" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="101"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="F9:G13"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="F4:G8"/>
+    <mergeCell ref="D9:E13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H14:I18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H4:I8"/>
+    <mergeCell ref="H9:I13"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F14:G18"/>
+    <mergeCell ref="D14:E18"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>